--- a/biology/Botanique/Azorella_polaris/Azorella_polaris.xlsx
+++ b/biology/Botanique/Azorella_polaris/Azorella_polaris.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Azorella polaris, communément appelé chou de l'île Macquarie, est une espèce vivace de plante à fleurs placée dans la famille des Apiaceae et seulement très lointainement apparenté au chou. C'est une mégaherbe, atteignant environ un mètre de hauteur, originaire des îles  de Nouvelle-Zélande et de l'Île Macquarie d'Australie.
@@ -512,9 +524,11 @@
           <t>Utilisations</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Azorella polaris était utilisé comme source de nourriture et comme moyen préventif du scorbut par les premiers explorateurs et chasseurs de phoques[2],[3]. Il a été mangé par les survivants du naufrage du Dundonald en 1907 sur l'Île de la Déception[4],[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Azorella polaris était utilisé comme source de nourriture et comme moyen préventif du scorbut par les premiers explorateurs et chasseurs de phoques,. Il a été mangé par les survivants du naufrage du Dundonald en 1907 sur l'Île de la Déception,.
 </t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>Statut de conservation</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il est classé comme « en péril – naturellement peu commun » dans le système de classification des plantes menacées de Nouvelle-Zélande[5]. Sur l'île Macquarie, il a été menacé par les rats noirs et les lapins européens introduits[2], jusqu'à leur éradication en 2011.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il est classé comme « en péril – naturellement peu commun » dans le système de classification des plantes menacées de Nouvelle-Zélande. Sur l'île Macquarie, il a été menacé par les rats noirs et les lapins européens introduits, jusqu'à leur éradication en 2011.
 </t>
         </is>
       </c>
